--- a/src/assets/report tft driving voltage.xlsx
+++ b/src/assets/report tft driving voltage.xlsx
@@ -33,9 +33,6 @@
     <t>sample</t>
   </si>
   <si>
-    <t>TFT Driving Voltage</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Err %</t>
+  </si>
+  <si>
+    <t>Confirm TFT LCD driving voltage of NG sample compare with Good sample</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -510,10 +510,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -531,16 +533,16 @@
     <row r="5" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>2</v>
@@ -616,11 +618,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
